--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ADF329-562F-49BF-AE1E-D72BD0D3F6C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25521D-71F5-4100-A690-2CF9D8E0A51B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1344" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>2/3 papers gedaan</t>
+  </si>
+  <si>
+    <t>Opdrachtomschrijving</t>
+  </si>
+  <si>
+    <t>Eerste planning</t>
+  </si>
+  <si>
+    <t>Poster+ abstract</t>
+  </si>
+  <si>
+    <t>Submit the thesis</t>
+  </si>
+  <si>
+    <t>Verdediging</t>
+  </si>
+  <si>
+    <t>Juni</t>
   </si>
 </sst>
 </file>
@@ -98,7 +116,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -134,81 +152,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -223,8 +166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:D14" totalsRowShown="0">
-  <autoFilter ref="A2:D14" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:D18" totalsRowShown="0">
+  <autoFilter ref="A2:D18" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AE4270C8-A833-4539-B292-AFA66296A3F9}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{0C04A14B-DD27-4D5B-A039-1828C31CF6C8}" name="Opdracht"/>
@@ -498,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,8 +506,60 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:D14">
+  <conditionalFormatting sqref="C3:D18">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -575,7 +570,7 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D7">
+  <conditionalFormatting sqref="C4:D7 C5:C14">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Niet begonnen">
       <formula>NOT(ISERROR(SEARCH("Niet begonnen",C4)))</formula>
     </cfRule>

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25521D-71F5-4100-A690-2CF9D8E0A51B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB220C48-29F7-4B2B-8710-551CB99A8374}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1344" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>Juni</t>
+  </si>
+  <si>
+    <t>Literatuurstudie in LateX</t>
+  </si>
+  <si>
+    <t>Raspberry Pi en Coral Dev analyseren</t>
+  </si>
+  <si>
+    <t>Raspberry Pi AI uitvoeren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eerste planning opstelle </t>
+  </si>
+  <si>
+    <t>Opdrachtomschrijvingopstellen</t>
   </si>
 </sst>
 </file>
@@ -166,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:D18" totalsRowShown="0">
-  <autoFilter ref="A2:D18" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:D19" totalsRowShown="0">
+  <autoFilter ref="A2:D19" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AE4270C8-A833-4539-B292-AFA66296A3F9}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{0C04A14B-DD27-4D5B-A039-1828C31CF6C8}" name="Opdracht"/>
@@ -441,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,60 +521,103 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>43751</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>43773</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>43582</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>43603</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:D18">
+  <conditionalFormatting sqref="C3:D10 C16:D19 D15 C11:C15">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -570,7 +628,7 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D7 C5:C14">
+  <conditionalFormatting sqref="C4:D7 C5:C18">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Niet begonnen">
       <formula>NOT(ISERROR(SEARCH("Niet begonnen",C4)))</formula>
     </cfRule>

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB220C48-29F7-4B2B-8710-551CB99A8374}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE29848-3D07-426C-8C6E-0B194ED84FCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1344" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Opmerking</t>
   </si>
   <si>
-    <t>2/3 papers gedaan</t>
-  </si>
-  <si>
     <t>Opdrachtomschrijving</t>
   </si>
   <si>
@@ -85,10 +82,16 @@
     <t>Raspberry Pi AI uitvoeren</t>
   </si>
   <si>
-    <t xml:space="preserve">Eerste planning opstelle </t>
-  </si>
-  <si>
-    <t>Opdrachtomschrijvingopstellen</t>
+    <t>Eerste planning opstellen</t>
+  </si>
+  <si>
+    <t>Opdrachtomschrijving opstellen</t>
+  </si>
+  <si>
+    <t>Pas na tutorial Tenserflow</t>
+  </si>
+  <si>
+    <t>predictionprobleem nog op te lossen</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,16 +512,16 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,15 +529,15 @@
         <v>43742</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -542,15 +545,18 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -558,7 +564,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -569,7 +575,7 @@
         <v>43751</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -580,7 +586,7 @@
         <v>43773</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -591,7 +597,7 @@
         <v>43582</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -602,7 +608,7 @@
         <v>43603</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -610,10 +616,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE29848-3D07-426C-8C6E-0B194ED84FCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C42D47-8945-439B-A670-00783CBC6C28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1344" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,6 +568,11 @@
       </c>
       <c r="C11" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43537</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C42D47-8945-439B-A670-00783CBC6C28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6977AB-7608-408C-AF25-4DA9C772061F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1344" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -91,17 +91,28 @@
     <t>Pas na tutorial Tenserflow</t>
   </si>
   <si>
-    <t>predictionprobleem nog op te lossen</t>
+    <t>Nog door te sturen naar (co-) promotoren</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/tutorials/keras/basic_classification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,14 +135,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -510,10 +524,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -561,13 +575,16 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -644,9 +661,12 @@
       <formula>NOT(ISERROR(SEARCH("Niet begonnen",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{11951A93-87DB-4333-B545-0331E1FC98C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6977AB-7608-408C-AF25-4DA9C772061F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B635A22-2C5E-43CC-9700-B1F5526334D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -91,10 +91,10 @@
     <t>Pas na tutorial Tenserflow</t>
   </si>
   <si>
-    <t>Nog door te sturen naar (co-) promotoren</t>
-  </si>
-  <si>
     <t>https://www.tensorflow.org/tutorials/keras/basic_classification</t>
+  </si>
+  <si>
+    <t>Doorgestuurd</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,11 +586,12 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43537</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -600,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -643,9 +644,12 @@
       <c r="B19" t="s">
         <v>15</v>
       </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:D10 C16:D19 D15 C11:C15">
+  <conditionalFormatting sqref="C3:D10 D15 C11:C15 C16:D19">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -656,7 +660,7 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D7 C5:C18">
+  <conditionalFormatting sqref="C4:D7 C5:C19">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Niet begonnen">
       <formula>NOT(ISERROR(SEARCH("Niet begonnen",C4)))</formula>
     </cfRule>

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B635A22-2C5E-43CC-9700-B1F5526334D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B411BD-D51D-4D7A-9833-35D08566772C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2184" yWindow="480" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B411BD-D51D-4D7A-9833-35D08566772C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C079EE6A-2C53-4372-AFB7-8808CA9E1C36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2184" yWindow="480" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -79,29 +79,47 @@
     <t>Raspberry Pi en Coral Dev analyseren</t>
   </si>
   <si>
-    <t>Raspberry Pi AI uitvoeren</t>
-  </si>
-  <si>
     <t>Eerste planning opstellen</t>
   </si>
   <si>
     <t>Opdrachtomschrijving opstellen</t>
   </si>
   <si>
-    <t>Pas na tutorial Tenserflow</t>
-  </si>
-  <si>
     <t>https://www.tensorflow.org/tutorials/keras/basic_classification</t>
   </si>
   <si>
     <t>Doorgestuurd</t>
+  </si>
+  <si>
+    <t>Implementatie NN op 1 device</t>
+  </si>
+  <si>
+    <t>Implementatie NN op 5devices</t>
+  </si>
+  <si>
+    <t>Experimentele resultaten</t>
+  </si>
+  <si>
+    <t>Conclusie</t>
+  </si>
+  <si>
+    <t>Paper geschreven</t>
+  </si>
+  <si>
+    <t>Poster +abstract schrijven en laten controleren</t>
+  </si>
+  <si>
+    <t>Thesis afwerken en laten controleren</t>
+  </si>
+  <si>
+    <t>PPT verdediging af en oefenen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +134,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Brown Light"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,16 +168,267 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -198,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:D19" totalsRowShown="0">
-  <autoFilter ref="A2:D19" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:D33" totalsRowShown="0">
+  <autoFilter ref="A2:D33" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AE4270C8-A833-4539-B292-AFA66296A3F9}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{0C04A14B-DD27-4D5B-A039-1828C31CF6C8}" name="Opdracht"/>
@@ -473,20 +753,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D19"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -500,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>43735</v>
       </c>
@@ -511,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -519,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -527,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -538,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>43742</v>
       </c>
@@ -549,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -557,99 +840,307 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43751</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>43773</v>
+        <v>43510</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>43582</v>
+        <v>43525</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>43603</v>
+        <v>43556</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>16</v>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>43562</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>43631</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:D10 D15 C11:C15 C16:D19">
+  <conditionalFormatting sqref="D16 D12 C3:D9 C20 D14 C10:C15 D23 C22:D22 C26 C24:D24">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+      <formula>"Bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>"Niet begonnen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+      <formula>"Klaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D7 C20 C22 C26 C24 C5:C15">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Niet begonnen">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>"Bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"Niet begonnen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+      <formula>"Klaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Niet begonnen">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"Bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"Niet begonnen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"Klaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Niet begonnen">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+      <formula>"Bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"Niet begonnen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>"Klaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Niet begonnen">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"Bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"Niet begonnen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+      <formula>"Klaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Niet begonnen">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"Bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Niet begonnen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Klaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Niet begonnen">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"Bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Niet begonnen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"Klaar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Niet begonnen">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -660,17 +1151,18 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D7 C5:C19">
+  <conditionalFormatting sqref="C23">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{11951A93-87DB-4333-B545-0331E1FC98C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C079EE6A-2C53-4372-AFB7-8808CA9E1C36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90055FE1-2205-482E-AD72-DB3A3C321712}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2184" yWindow="480" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -755,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -856,7 +862,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -881,7 +887,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -892,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -903,7 +909,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3"/>
       <c r="H14" s="4"/>

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90055FE1-2205-482E-AD72-DB3A3C321712}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B50FED-E009-477E-9811-4636417386A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1020" yWindow="8184" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -100,9 +101,6 @@
     <t>Implementatie NN op 1 device</t>
   </si>
   <si>
-    <t>Implementatie NN op 5devices</t>
-  </si>
-  <si>
     <t>Experimentele resultaten</t>
   </si>
   <si>
@@ -119,6 +117,60 @@
   </si>
   <si>
     <t>PPT verdediging af en oefenen</t>
+  </si>
+  <si>
+    <t>Opstellen algoritme</t>
+  </si>
+  <si>
+    <t>Opstellen dataverwerkingsalgoritme</t>
+  </si>
+  <si>
+    <t>Implementatie NN op 3 devices</t>
+  </si>
+  <si>
+    <t>Implementatie NN op 5 devices</t>
+  </si>
+  <si>
+    <t>situering cloud tov edge verhaal (niet lokaal)</t>
+  </si>
+  <si>
+    <t>bespreken ML algemeen</t>
+  </si>
+  <si>
+    <t>kadering NN binnen ML</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>sterktes, zwaktes van alle verschillende ML-technieken en waarom wij voor NN -&gt; nood aan low latency ( zie zelfrijdende auto's) kiezen</t>
+  </si>
+  <si>
+    <t>SBC's beschrijven + hoe lang nog ondersteund?</t>
+  </si>
+  <si>
+    <t>evolutie SBC</t>
+  </si>
+  <si>
+    <t>(CPU-RAM-kostprijs, algemene performantie, eventuele overzichtspaper)</t>
+  </si>
+  <si>
+    <t>benchmarking mbt machinelearning</t>
+  </si>
+  <si>
+    <t>mogelijke use-case uitwerken</t>
+  </si>
+  <si>
+    <t>state of the art</t>
+  </si>
+  <si>
+    <t>korte vermelding van deep learning</t>
+  </si>
+  <si>
+    <t>toep per MML techniek</t>
+  </si>
+  <si>
+    <t>types transferfuncties: rectifier en co</t>
   </si>
 </sst>
 </file>
@@ -187,7 +239,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
     <dxf>
@@ -484,13 +536,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:D33" totalsRowShown="0">
-  <autoFilter ref="A2:D33" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:E46" totalsRowShown="0">
+  <autoFilter ref="A2:E46" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AE4270C8-A833-4539-B292-AFA66296A3F9}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{0C04A14B-DD27-4D5B-A039-1828C31CF6C8}" name="Opdracht"/>
     <tableColumn id="3" xr3:uid="{3860BA8F-6775-419E-8F89-6B5472BB47D0}" name="Status"/>
     <tableColumn id="6" xr3:uid="{52548523-62B2-43C7-A3EC-DF948B61573C}" name="Opmerking"/>
+    <tableColumn id="4" xr3:uid="{818AEAAA-31BE-478D-9182-DD596664ACE4}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -759,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -788,6 +841,9 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
@@ -909,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3"/>
       <c r="H14" s="4"/>
@@ -919,33 +975,30 @@
         <v>43800</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="3"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>43510</v>
+        <v>43813</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>43525</v>
-      </c>
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -953,88 +1006,255 @@
       <c r="F17" s="3"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
         <v>43556</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>43562</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B43" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>43582</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>43589</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43631</v>
+      </c>
+      <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>43603</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>43631</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B46" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D16 D12 C3:D9 C20 D14 C10:C15 D23 C22:D22 C26 C24:D24">
+  <conditionalFormatting sqref="D19 D12 C3:D9 C42 D14 C10:C14 C44 C46 C15:D16 D17 D25:D27 C17:C37">
     <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1045,12 +1265,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D7 C20 C22 C26 C24 C5:C15">
+  <conditionalFormatting sqref="C4:D7 C42 C44 C46 C5:C37">
     <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Niet begonnen">
       <formula>NOT(ISERROR(SEARCH("Niet begonnen",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C37">
     <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1061,12 +1281,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C37">
     <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1077,12 +1297,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C41">
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
     <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1093,12 +1313,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C40">
     <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
     <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1109,12 +1329,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C39">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1125,12 +1345,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C38">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1141,12 +1361,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="C43">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1157,9 +1377,9 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C45">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B50FED-E009-477E-9811-4636417386A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A98CEA-B861-49DF-BAD2-0C11B28E3860}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="8184" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21744" yWindow="1128" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -171,6 +170,27 @@
   </si>
   <si>
     <t>types transferfuncties: rectifier en co</t>
+  </si>
+  <si>
+    <t>bronnen vermelden!</t>
+  </si>
+  <si>
+    <t>Vermelden waarom we voor low latency gaan</t>
+  </si>
+  <si>
+    <t>Ondersteuning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waaromvraag boards beantwoorden </t>
+  </si>
+  <si>
+    <t>interessanter om low end te gebruiken?</t>
+  </si>
+  <si>
+    <t>niet gevonden voor rpi4</t>
+  </si>
+  <si>
+    <t>klaar</t>
   </si>
 </sst>
 </file>
@@ -814,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1019,7 +1039,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -1030,7 +1050,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -1038,7 +1058,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -1049,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -1057,7 +1077,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -1065,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -1089,27 +1109,45 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:8">

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A98CEA-B861-49DF-BAD2-0C11B28E3860}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDF2B16-F188-4C0A-88C5-124C7D0DC4F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21744" yWindow="1128" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -556,8 +556,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:E46" totalsRowShown="0">
-  <autoFilter ref="A2:E46" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:E52" totalsRowShown="0">
+  <autoFilter ref="A2:E52" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AE4270C8-A833-4539-B292-AFA66296A3F9}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{0C04A14B-DD27-4D5B-A039-1828C31CF6C8}" name="Opdracht"/>
@@ -832,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H46"/>
+  <dimension ref="A2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1058,7 +1058,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -1174,9 +1174,6 @@
       <c r="A36" s="1">
         <v>43466</v>
       </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
@@ -1185,9 +1182,6 @@
       <c r="A37" s="1">
         <v>43497</v>
       </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
@@ -1196,9 +1190,6 @@
       <c r="A38" s="1">
         <v>43862</v>
       </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
@@ -1207,9 +1198,6 @@
       <c r="A39" s="1">
         <v>43525</v>
       </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
@@ -1218,9 +1206,6 @@
       <c r="A40" s="1">
         <v>43556</v>
       </c>
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
@@ -1229,9 +1214,6 @@
       <c r="A41" s="1">
         <v>43562</v>
       </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1223,7 @@
         <v>43582</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1252,7 +1234,7 @@
         <v>43589</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -1263,7 +1245,7 @@
         <v>43603</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -1274,7 +1256,7 @@
         <v>43631</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1285,14 +1267,62 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C52" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D19 D12 C3:D9 C42 D14 C10:C14 C44 C46 C15:D16 D17 D25:D27 C17:C37">
+  <conditionalFormatting sqref="D19 D12 C3:D9 C48 D14 C10:C14 C50 C52 C15:D16 D17 D25:D27 C17:C43">
     <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1303,12 +1333,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D7 C42 C44 C46 C5:C37">
+  <conditionalFormatting sqref="C4:D7 C48 C50 C52 C5:C43">
     <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Niet begonnen">
       <formula>NOT(ISERROR(SEARCH("Niet begonnen",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C43">
     <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1319,12 +1349,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C43">
     <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1335,12 +1365,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+  <conditionalFormatting sqref="C47">
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
     <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1351,12 +1381,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="C46">
     <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
     <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1367,12 +1397,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
+  <conditionalFormatting sqref="C45">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1383,12 +1413,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C44">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1399,12 +1429,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="C49">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1415,9 +1445,9 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C51">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/Opdrachten.xlsx
+++ b/Opdrachten.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDF2B16-F188-4C0A-88C5-124C7D0DC4F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2169978-E752-4D47-B0F6-E81471950927}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Verslag over implementatie NN op de devices</t>
   </si>
@@ -556,8 +556,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:E52" totalsRowShown="0">
-  <autoFilter ref="A2:E52" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{937167B6-15C3-4223-83C3-5194F0E68A12}" name="Opdrachten" displayName="Opdrachten" ref="A2:E48" totalsRowShown="0">
+  <autoFilter ref="A2:E48" xr:uid="{6756300F-EDE9-4CFE-8517-CD1DD5FA7400}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AE4270C8-A833-4539-B292-AFA66296A3F9}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{0C04A14B-DD27-4D5B-A039-1828C31CF6C8}" name="Opdracht"/>
@@ -832,20 +832,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H52"/>
+  <dimension ref="A2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
-    <col min="8" max="8" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -1016,7 +1016,7 @@
       <c r="F16" s="3"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="F17" s="3"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="1:8">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="1:8">
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="1:8">
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="1:8">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="1:8">
       <c r="B28" t="s">
         <v>48</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="1:8">
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="1:8">
       <c r="B30" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="1:8">
       <c r="B31" t="s">
         <v>51</v>
       </c>
@@ -1150,29 +1150,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>43466</v>
+        <v>43556</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1180,7 +1207,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>43497</v>
+        <v>43562</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1188,7 +1218,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>43862</v>
+        <v>43582</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -1196,7 +1229,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>43525</v>
+        <v>43589</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -1204,7 +1240,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>43556</v>
+        <v>43603</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -1212,117 +1251,58 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>43562</v>
+        <v>43631</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>43582</v>
+      <c r="A42" t="s">
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>43589</v>
-      </c>
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>43603</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43631</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D19 D12 C3:D9 C48 D14 C10:C14 C50 C52 C15:D16 D17 D25:D27 C17:C43">
+  <conditionalFormatting sqref="D19 D12 C3:D9 C44 D14 C10:C14 C46 C48 C15:D16 D17 D25:D27 C17:C39">
     <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1333,12 +1313,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D7 C48 C50 C52 C5:C43">
+  <conditionalFormatting sqref="C4:D7 C44 C46 C48 C5:C39">
     <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Niet begonnen">
       <formula>NOT(ISERROR(SEARCH("Niet begonnen",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="C39">
     <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1349,12 +1329,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Niet begonnen">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1365,12 +1345,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C43">
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
     <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1381,12 +1361,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C42">
     <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
     <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1397,12 +1377,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C41">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1413,12 +1393,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+  <conditionalFormatting sqref="C40">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1429,12 +1409,12 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+  <conditionalFormatting sqref="C45">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Bezig"</formula>
     </cfRule>
@@ -1445,9 +1425,9 @@
       <formula>"Klaar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C47">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Niet begonnen">
-      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Niet begonnen",C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
